--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ontology Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Group</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBODY</t>
@@ -184,6 +187,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -289,10 +293,10 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -382,7 +386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -410,23 +414,26 @@
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -440,46 +447,46 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>18</v>
@@ -493,29 +500,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -536,29 +543,29 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -588,22 +595,22 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -627,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,23 +662,26 @@
       <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -685,46 +695,46 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>18</v>
@@ -738,29 +748,29 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -781,29 +791,29 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -833,22 +843,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
